--- a/Course list and attributes.xlsx
+++ b/Course list and attributes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23322"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennstateoffice365-my.sharepoint.com/personal/zuh11_psu_edu/Documents/Scheduler project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E0A961D-93A1-40F2-A4E2-AA56ED058B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{304BECCE-5CA8-45DD-A180-02B5413D6F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="460" windowWidth="51200" windowHeight="28340" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="37740" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S&amp;E Courses" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="423">
   <si>
     <t>Subject</t>
   </si>
@@ -83,6 +82,12 @@
     <t>Room in</t>
   </si>
   <si>
+    <t># of sections</t>
+  </si>
+  <si>
+    <t>Concurrent OK?</t>
+  </si>
+  <si>
     <t>ASTRO</t>
   </si>
   <si>
@@ -113,6 +118,9 @@
     <t>BISC1, BISC2</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 110L</t>
   </si>
   <si>
@@ -554,6 +562,9 @@
     <t>MATH110, MATH140</t>
   </si>
   <si>
+    <t>no more than 2</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 132</t>
   </si>
   <si>
@@ -593,6 +604,9 @@
     <t>CMPSC121 or 131</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>EARTH</t>
   </si>
   <si>
@@ -864,6 +878,9 @@
   </si>
   <si>
     <t>Intermed Algebra</t>
+  </si>
+  <si>
+    <t>2 concurrent</t>
   </si>
   <si>
     <t xml:space="preserve">  21</t>
@@ -1912,9 +1929,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O119"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K120" sqref="K120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15"/>
@@ -1929,8 +1946,8 @@
     <col min="8" max="8" width="45" style="5" customWidth="1"/>
     <col min="9" max="9" width="29.140625" style="3" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="15" style="3" customWidth="1"/>
     <col min="13" max="13" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" style="3" bestFit="1" customWidth="1"/>
@@ -1968,2739 +1985,3250 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4">
         <v>60</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4">
         <v>72</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="K3" s="3">
+        <v>4</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4">
         <v>24</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4">
         <v>72</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4">
         <v>24</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="7">
         <v>163</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" s="4">
         <v>72</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="7">
         <v>164</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4">
         <v>24</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>31</v>
+      <c r="K8" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4">
         <v>72</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10" s="4">
         <v>24</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11" s="4">
         <v>67</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12" s="4">
         <v>24</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E13" s="4">
         <v>72</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E14" s="4">
         <v>24</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E15" s="4">
         <v>24</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E16" s="4">
         <v>36</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E17" s="4">
         <v>36</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>60</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" s="4">
         <v>36</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>60</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E19" s="4">
         <v>36</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E20" s="4">
         <v>36</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E21" s="4">
         <v>36</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>60</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E22" s="4">
         <v>36</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>60</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E23" s="4">
         <v>36</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>60</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E24" s="4">
         <v>36</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E25" s="4">
         <v>36</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>60</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E26" s="4">
         <v>36</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>60</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E27" s="4">
         <v>36</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>60</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E28" s="4">
         <v>36</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>60</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E29" s="4">
         <v>36</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E30" s="4">
         <v>36</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>25</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E31" s="4">
         <v>25</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>25</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E32" s="4">
         <v>24</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>102</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E33" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E34" s="4">
         <v>50</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>107</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E35" s="4">
         <v>36</v>
       </c>
       <c r="F35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="B36" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E36" s="4">
         <v>36</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H36" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E37" s="4">
         <v>70</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="K37" s="3">
+        <v>2</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E38" s="4">
         <v>60</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>118</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E39" s="4">
         <v>20</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>122</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E40" s="4">
         <v>60</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>125</v>
+      </c>
+      <c r="K40" s="3">
+        <v>5</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="D41" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E41" s="4">
         <v>20</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>122</v>
+      </c>
+      <c r="K41" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E42" s="4">
         <v>20</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>124</v>
+      </c>
+      <c r="K42" s="3">
+        <v>7</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E43" s="4">
         <v>48</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>131</v>
+      </c>
+      <c r="K43" s="3">
+        <v>2</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E44" s="4">
         <v>24</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>122</v>
+      </c>
+      <c r="K44" s="3">
+        <v>2</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E45" s="4">
         <v>18</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>131</v>
+      </c>
+      <c r="K45" s="3">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E46" s="4">
         <v>36</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>131</v>
+      </c>
+      <c r="K46" s="3">
+        <v>2</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E47" s="4">
         <v>36</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>141</v>
+      </c>
+      <c r="K47" s="3">
+        <v>2</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E48" s="4">
         <v>18</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>141</v>
+      </c>
+      <c r="K48" s="3">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E49" s="4">
         <v>36</v>
       </c>
       <c r="G49" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K49" s="3">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="B50" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E50" s="4">
         <v>18</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>154</v>
+      </c>
+      <c r="K50" s="3">
+        <v>4</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E51" s="4">
         <v>24</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E52" s="4">
         <v>24</v>
       </c>
       <c r="G52" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K52" s="3">
+        <v>2</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="B53" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E53" s="4">
         <v>24</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K53" s="3">
+        <v>2</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E54" s="4">
         <v>20</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K54" s="3">
+        <v>4</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E55" s="4">
         <v>20</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K55" s="3">
+        <v>4</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E56" s="4">
         <v>20</v>
       </c>
       <c r="F56" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K56" s="3">
+        <v>2</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G56" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="B57" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E57" s="4">
         <v>20</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E58" s="4">
         <v>24</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>183</v>
+      </c>
+      <c r="K58" s="3">
+        <v>2</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E59" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E60" s="4">
         <v>18</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>192</v>
+      </c>
+      <c r="K60" s="3">
+        <v>7</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="E61" s="4">
         <v>24</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>154</v>
+      </c>
+      <c r="K61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E62" s="4">
         <v>24</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>200</v>
+      </c>
+      <c r="K62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E63" s="4">
         <v>24</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>203</v>
+      </c>
+      <c r="K63" s="3">
+        <v>2</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E64" s="4">
         <v>24</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>206</v>
+      </c>
+      <c r="K64" s="3">
+        <v>2</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E65" s="4">
         <v>24</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>203</v>
+      </c>
+      <c r="K65" s="3">
+        <v>2</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E66" s="4">
         <v>24</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K66" s="3">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E67" s="4">
         <v>20</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K67" s="3">
+        <v>3</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E68" s="4">
         <v>20</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K68" s="3">
+        <v>3</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E69" s="4">
         <v>20</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K69" s="3">
+        <v>3</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E70" s="4">
         <v>20</v>
       </c>
       <c r="F70" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H70" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="H70" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="J70" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K70" s="3">
+        <v>3</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E71" s="4">
         <v>20</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E72" s="4">
         <v>20</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E73" s="4">
         <v>20</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E74" s="4">
         <v>20</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E75" s="4">
         <v>20</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K75" s="3">
+        <v>2</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E76" s="4">
         <v>20</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K76" s="3">
+        <v>2</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E77" s="4">
         <v>20</v>
       </c>
       <c r="F77" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H77" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H77" s="5" t="s">
-        <v>231</v>
-      </c>
       <c r="J77" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E78" s="4">
         <v>20</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E79" s="4">
         <v>20</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E80" s="4">
         <v>20</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K80" s="3">
+        <v>2</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E81" s="4">
         <v>20</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E82" s="4">
         <v>20</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E83" s="4">
         <v>20</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E84" s="4">
         <v>20</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E85" s="4">
         <v>20</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E86" s="4">
         <v>20</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K86" s="3">
+        <v>2</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E87" s="4">
         <v>20</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E88" s="4">
         <v>20</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E89" s="4">
         <v>20</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E90" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90" s="3">
+        <v>3</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E91" s="4">
         <v>20</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
+        <v>124</v>
+      </c>
+      <c r="K91" s="3">
+        <v>10</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E92" s="4">
         <v>20</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
+        <v>283</v>
+      </c>
+      <c r="K92" s="3">
+        <v>8</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E93" s="4">
         <v>20</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
+        <v>286</v>
+      </c>
+      <c r="K93" s="3">
+        <v>8</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E94" s="4">
         <v>30</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
+        <v>279</v>
+      </c>
+      <c r="K94" s="3">
+        <v>2</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E95" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95" s="3">
+        <v>2</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E96" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E97" s="4">
         <v>20</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
+        <v>162</v>
+      </c>
+      <c r="K97" s="3">
+        <v>15</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E98" s="4">
         <v>20</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
+        <v>299</v>
+      </c>
+      <c r="K98" s="3">
+        <v>15</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E99" s="4">
         <v>20</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+        <v>302</v>
+      </c>
+      <c r="K99" s="3">
+        <v>8</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E100" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100" s="3">
+        <v>2</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E101" s="4">
         <v>20</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+        <v>162</v>
+      </c>
+      <c r="K101" s="3">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E102" s="4">
         <v>20</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
+        <v>307</v>
+      </c>
+      <c r="K102" s="3">
+        <v>2</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E103" s="4">
         <v>20</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
+        <v>307</v>
+      </c>
+      <c r="K103" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E104" s="4">
         <v>20</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
+        <v>312</v>
+      </c>
+      <c r="K104" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E105" s="4">
         <v>20</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10">
+        <v>315</v>
+      </c>
+      <c r="K105" s="3">
+        <v>2</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E106" s="4">
         <v>20</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
+        <v>176</v>
+      </c>
+      <c r="K106" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="3" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="E107" s="4">
         <v>20</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
+        <v>322</v>
+      </c>
+      <c r="K107" s="3">
+        <v>6</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="3" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="E108" s="4">
         <v>20</v>
       </c>
       <c r="F108" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="K108" s="3">
+        <v>4</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="H108" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10">
-      <c r="A109" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="B109" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E109" s="4">
         <v>20</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
+        <v>330</v>
+      </c>
+      <c r="K109" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="3" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="E110" s="4">
         <v>20</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10">
+        <v>322</v>
+      </c>
+      <c r="K110" s="3">
+        <v>2</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="3" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="E111" s="4">
         <v>20</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
+        <v>326</v>
+      </c>
+      <c r="K111" s="3">
+        <v>2</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="3" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E112" s="4">
         <v>20</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K112" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" s="3" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E113" s="4">
         <v>20</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K113" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" s="3" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E114" s="4">
         <v>20</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" s="3" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E115" s="4">
         <v>20</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
+        <v>150</v>
+      </c>
+      <c r="K115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" s="3" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B116" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="E116" s="4">
         <v>24</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
+        <v>282</v>
+      </c>
+      <c r="K116" s="3">
+        <v>16</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" s="3" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B117" s="7">
         <v>250</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E117" s="4">
         <v>24</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10">
+        <v>345</v>
+      </c>
+      <c r="K117" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="3" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E118" s="4">
         <v>24</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
+        <v>348</v>
+      </c>
+      <c r="K118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="3" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E119" s="4">
         <v>50</v>
+      </c>
+      <c r="K119" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4726,24 +5254,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.95">
       <c r="A1" s="8" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B2" s="9">
         <v>112</v>
@@ -4752,13 +5280,13 @@
         <v>186</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B3" s="9">
         <v>121</v>
@@ -4767,13 +5295,13 @@
         <v>32</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B4" s="9">
         <v>119</v>
@@ -4782,15 +5310,15 @@
         <v>24</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B5" s="9">
         <v>124</v>
@@ -4799,81 +5327,81 @@
         <v>24</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C6" s="9">
         <v>34</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C7" s="9">
         <v>24</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C8" s="9">
         <v>18</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C9" s="9">
         <v>24</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B10" s="9">
         <v>135</v>
@@ -4882,45 +5410,45 @@
         <v>24</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C11" s="9">
         <v>18</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C12" s="9">
         <v>18</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B13" s="9">
         <v>220</v>
@@ -4929,13 +5457,13 @@
         <v>36</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B14" s="9">
         <v>222</v>
@@ -4944,15 +5472,15 @@
         <v>24</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B15" s="9">
         <v>224</v>
@@ -4961,15 +5489,15 @@
         <v>24</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B16" s="9">
         <v>242</v>
@@ -4978,15 +5506,15 @@
         <v>24</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B17" s="9">
         <v>246</v>
@@ -4995,15 +5523,15 @@
         <v>24</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B18" s="9">
         <v>237</v>
@@ -5012,15 +5540,15 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B19" s="9">
         <v>313</v>
@@ -5029,13 +5557,13 @@
         <v>72</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B20" s="9">
         <v>319</v>
@@ -5044,13 +5572,13 @@
         <v>36</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B21" s="9">
         <v>321</v>
@@ -5059,15 +5587,15 @@
         <v>22</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B22" s="9">
         <v>340</v>
@@ -5076,13 +5604,13 @@
         <v>30</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B23" s="9">
         <v>341</v>
@@ -5091,15 +5619,15 @@
         <v>24</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B24" s="9">
         <v>342</v>
@@ -5108,15 +5636,15 @@
         <v>36</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B25" s="9">
         <v>343</v>
@@ -5125,13 +5653,13 @@
         <v>20</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B26" s="9">
         <v>345</v>
@@ -5140,15 +5668,15 @@
         <v>24</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B27" s="9">
         <v>346</v>
@@ -5157,45 +5685,45 @@
         <v>24</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C28" s="9">
         <v>66</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C29" s="9">
         <v>258</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B30" s="9">
         <v>201</v>
@@ -5204,13 +5732,13 @@
         <v>27</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B31" s="9">
         <v>204</v>
@@ -5219,13 +5747,13 @@
         <v>70</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B32" s="9">
         <v>206</v>
@@ -5234,13 +5762,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B33" s="9">
         <v>208</v>
@@ -5249,13 +5777,13 @@
         <v>43</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B34" s="9">
         <v>209</v>
@@ -5264,13 +5792,13 @@
         <v>46</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B35" s="9">
         <v>210</v>
@@ -5279,13 +5807,13 @@
         <v>46</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B36" s="9">
         <v>211</v>
@@ -5294,13 +5822,13 @@
         <v>40</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E36" s="14"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B37" s="9">
         <v>213</v>
@@ -5309,13 +5837,13 @@
         <v>30</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E37" s="14"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B38" s="9">
         <v>215</v>
@@ -5324,13 +5852,13 @@
         <v>30</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B39" s="9">
         <v>216</v>
@@ -5339,13 +5867,13 @@
         <v>38</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B40" s="9">
         <v>217</v>
@@ -5354,13 +5882,13 @@
         <v>34</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B41" s="9">
         <v>222</v>
@@ -5369,13 +5897,13 @@
         <v>60</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B42" s="9">
         <v>226</v>
@@ -5384,13 +5912,13 @@
         <v>48</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B43" s="9">
         <v>227</v>
@@ -5399,13 +5927,13 @@
         <v>24</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B44" s="9">
         <v>305</v>
@@ -5414,13 +5942,13 @@
         <v>45</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B45" s="9">
         <v>306</v>
@@ -5429,13 +5957,13 @@
         <v>25</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B46" s="9">
         <v>307</v>
@@ -5444,13 +5972,13 @@
         <v>30</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B47" s="9">
         <v>308</v>
@@ -5459,13 +5987,13 @@
         <v>35</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B48" s="9">
         <v>309</v>
@@ -5474,13 +6002,13 @@
         <v>35</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B49" s="9">
         <v>311</v>
@@ -5489,13 +6017,13 @@
         <v>31</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B50" s="9">
         <v>320</v>
@@ -5504,13 +6032,13 @@
         <v>36</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E50" s="14"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B51" s="9">
         <v>331</v>
@@ -5519,13 +6047,13 @@
         <v>45</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E51" s="14"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B52" s="9">
         <v>403</v>
@@ -5534,13 +6062,13 @@
         <v>15</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="E52" s="14"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="9" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B53" s="9">
         <v>100</v>
@@ -5549,13 +6077,13 @@
         <v>36</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E53" s="14"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="9" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B54" s="9">
         <v>101</v>
@@ -5564,28 +6092,28 @@
         <v>24</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E54" s="14"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="9" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C55" s="9">
         <v>21</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E55" s="14"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="9" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B56" s="9">
         <v>101</v>
@@ -5594,28 +6122,28 @@
         <v>60</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="9" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C57" s="9">
         <v>30</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E57" s="14"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="9" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B58" s="9">
         <v>102</v>
@@ -5624,16 +6152,16 @@
         <v>40</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E58" s="14"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="11" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C59" s="11">
         <v>15</v>
@@ -5648,121 +6176,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F66A28-76E8-4CD3-989A-696474DCFCEC}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="16" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="19" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="19" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="19" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="19" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="19" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="19" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -5770,7 +6298,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="19" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -5779,7 +6307,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="19" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -5788,7 +6316,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="22" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
